--- a/CurrentWork_Delta/JSFrameworkAnalysis.xlsx
+++ b/CurrentWork_Delta/JSFrameworkAnalysis.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mark\CurrentWork_Delta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCD974-10A9-40BB-9F66-3D83F17531C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B27B82-85AA-4B44-866D-3DAC185FF127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2760" windowWidth="22380" windowHeight="8475" xr2:uid="{844304DC-2A73-4C6E-AAC9-D61A16796D9D}"/>
+    <workbookView xWindow="9045" yWindow="5055" windowWidth="16170" windowHeight="6570" firstSheet="2" activeTab="5" xr2:uid="{844304DC-2A73-4C6E-AAC9-D61A16796D9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="base-control" sheetId="1" r:id="rId1"/>
+    <sheet name="button-control" sheetId="2" r:id="rId2"/>
+    <sheet name="checkbox-control" sheetId="3" r:id="rId3"/>
+    <sheet name="Label-control" sheetId="4" r:id="rId4"/>
+    <sheet name="link-control" sheetId="5" r:id="rId5"/>
+    <sheet name="radiobutton-control" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Base Control</t>
   </si>
@@ -75,6 +80,88 @@
     scrollIntoView() {
         return browser.executeScript("arguments[0].scrollIntoView();", element(this.locator).getWebElement());
     }</t>
+  </si>
+  <si>
+    <t>button-control</t>
+  </si>
+  <si>
+    <t>pd-test Automation</t>
+  </si>
+  <si>
+    <t>ess</t>
+  </si>
+  <si>
+    <t>extra lines 1, 6</t>
+  </si>
+  <si>
+    <t>Line 31 Terminating semicolon</t>
+  </si>
+  <si>
+    <t>JsFramework</t>
+  </si>
+  <si>
+    <t>Line 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> console.log("check() ==&gt; Is check box checked  ==&gt; " + val);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Line 43, 44</t>
+  </si>
+  <si>
+    <t>Extra two lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> console.log("unCehck() ==&gt; Is check box checked  ==&gt; " + val);</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>console.log("Is check box checked  ========= " + val);</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> console.log("unCheck() ==&gt; Is check box checked  ==&gt; " + val);</t>
+  </si>
+  <si>
+    <t>Line 47</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketplace </t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>one or two less or more lines</t>
+  </si>
+  <si>
+    <t>semiColons on Function Termination</t>
+  </si>
+  <si>
+    <t>One less at line 41</t>
+  </si>
+  <si>
+    <t>fcn terminating semicolon</t>
+  </si>
+  <si>
+    <t>link-control</t>
+  </si>
+  <si>
+    <t>Line 24  IsSelected is quite different 
+across all thee first file</t>
   </si>
 </sst>
 </file>
@@ -431,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84646F71-17EE-42A1-8B52-4608E185FBA4}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -476,4 +563,222 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0B44E4-C21F-42D4-AC75-0D8159AB00A9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="6" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD9B8F0-B179-4C04-8501-DC3630F7DF67}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="6" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AC1A73-2FFD-468C-8D00-EA422967E30E}">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="6" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B32963-90AF-49EE-BBF2-6CB1385CED94}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="6" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA9E7C8-0C88-439C-B78B-C61774026F27}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="6" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>